--- a/EVO/Data.xlsx
+++ b/EVO/Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -41,32 +41,10 @@
     <t>K2_angle</t>
   </si>
   <si>
-    <r>
-      <t>△</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF4F4F4F"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>K</t>
-    </r>
+    <t>△K</t>
   </si>
   <si>
-    <r>
-      <t>△</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF4F4F4F"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>K_angle</t>
-    </r>
+    <t>△K_angle</t>
   </si>
   <si>
     <t>WTW</t>
@@ -93,189 +71,6 @@
     <t>xxx</t>
   </si>
   <si>
-    <t>118.8985</t>
-  </si>
-  <si>
-    <t>118.5095</t>
-  </si>
-  <si>
-    <t>119.0245</t>
-  </si>
-  <si>
-    <t>118.3845</t>
-  </si>
-  <si>
-    <t>118.2895</t>
-  </si>
-  <si>
-    <t>洪雪媛</t>
-  </si>
-  <si>
-    <t>116.8930</t>
-  </si>
-  <si>
-    <t>关荣</t>
-  </si>
-  <si>
-    <t>116.9315</t>
-  </si>
-  <si>
-    <t>陈景才</t>
-  </si>
-  <si>
-    <t>117.3705</t>
-  </si>
-  <si>
-    <t>阎锋超</t>
-  </si>
-  <si>
-    <t>116.6925</t>
-  </si>
-  <si>
-    <t>张爱军</t>
-  </si>
-  <si>
-    <t>116.7980</t>
-  </si>
-  <si>
-    <t>任志纯</t>
-  </si>
-  <si>
-    <t>116.6450</t>
-  </si>
-  <si>
-    <t>郭家珍</t>
-  </si>
-  <si>
-    <t>117.3800</t>
-  </si>
-  <si>
-    <t>王金山</t>
-  </si>
-  <si>
-    <t>116.8550</t>
-  </si>
-  <si>
-    <t>税清全</t>
-  </si>
-  <si>
-    <t>116.8360</t>
-  </si>
-  <si>
-    <t>刘希安</t>
-  </si>
-  <si>
-    <t>118.0770</t>
-  </si>
-  <si>
-    <t>王敬治</t>
-  </si>
-  <si>
-    <t>117.3320</t>
-  </si>
-  <si>
-    <t>董桂珍</t>
-  </si>
-  <si>
-    <t>117.1605</t>
-  </si>
-  <si>
-    <t>王立钧</t>
-  </si>
-  <si>
-    <t>118.0095</t>
-  </si>
-  <si>
-    <t>赵亚玲</t>
-  </si>
-  <si>
-    <t>武迎平</t>
-  </si>
-  <si>
-    <t>118.2870</t>
-  </si>
-  <si>
-    <t>张益铫</t>
-  </si>
-  <si>
-    <t>116.3020</t>
-  </si>
-  <si>
-    <t>王满生</t>
-  </si>
-  <si>
-    <t>115.4140</t>
-  </si>
-  <si>
-    <t>吴明明</t>
-  </si>
-  <si>
-    <t>116.8265</t>
-  </si>
-  <si>
-    <t>郭春梅</t>
-  </si>
-  <si>
-    <t>117.6950</t>
-  </si>
-  <si>
-    <t>陈万春</t>
-  </si>
-  <si>
-    <t>116.7790</t>
-  </si>
-  <si>
-    <t>王淑华</t>
-  </si>
-  <si>
-    <t>117.5805</t>
-  </si>
-  <si>
-    <t>李淑兰</t>
-  </si>
-  <si>
-    <t>117.7710</t>
-  </si>
-  <si>
-    <t>刘学勤</t>
-  </si>
-  <si>
-    <t>114.9270</t>
-  </si>
-  <si>
-    <t>支美英</t>
-  </si>
-  <si>
-    <t>117.4280</t>
-  </si>
-  <si>
-    <t>高淑兰</t>
-  </si>
-  <si>
-    <t>117.0650</t>
-  </si>
-  <si>
-    <t>褚瑶</t>
-  </si>
-  <si>
-    <t>吕文荣</t>
-  </si>
-  <si>
-    <t>116.9795</t>
-  </si>
-  <si>
-    <t>崔玉霞</t>
-  </si>
-  <si>
-    <t>117.3035</t>
-  </si>
-  <si>
-    <t>热比艳</t>
-  </si>
-  <si>
-    <t>118.0000</t>
-  </si>
-  <si>
     <t>1=双眼Zeiss，2=单眼Zeiss</t>
   </si>
   <si>
@@ -298,15 +93,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,33 +109,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF4F4F4F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF4F4F4F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -351,21 +118,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,16 +133,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,11 +155,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,7 +194,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,22 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -464,14 +238,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,19 +262,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFF3F5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,7 +280,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,13 +346,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,19 +370,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,19 +412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,97 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,27 +447,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -721,8 +470,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,11 +509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,30 +535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,168 +573,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1039,28 +769,6 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2520,11 +2228,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AK91"/>
+  <sheetPr/>
+  <dimension ref="A1:AK44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P$1:P$1048576"/>
+      <selection activeCell="G10" sqref="A1:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2534,1555 +2242,1032 @@
     <col min="18" max="18" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:37">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:37">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="AK1" s="5" t="s">
+      <c r="P1" s="2"/>
+      <c r="AK1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>23.41</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2">
         <v>2.64</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>42.88</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2">
         <v>44.12</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2">
         <v>21.5</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2"/>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="AK2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>22.8</v>
+      </c>
+      <c r="C3">
+        <v>2.63</v>
+      </c>
+      <c r="D3">
+        <v>45.49</v>
+      </c>
+      <c r="F3">
+        <v>46.49</v>
+      </c>
+      <c r="L3">
+        <v>20.5</v>
+      </c>
+      <c r="M3">
+        <v>-0.25</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="AK3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>23.79</v>
+      </c>
+      <c r="C4">
+        <v>2.87</v>
+      </c>
+      <c r="D4">
+        <v>42.88</v>
+      </c>
+      <c r="F4">
+        <v>43.72</v>
+      </c>
+      <c r="L4">
+        <v>20.5</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="AK4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>23.44</v>
+      </c>
+      <c r="C5">
+        <v>2.61</v>
+      </c>
+      <c r="D5">
+        <v>44</v>
+      </c>
+      <c r="F5">
+        <v>44.29</v>
+      </c>
+      <c r="L5">
+        <v>20.5</v>
+      </c>
+      <c r="M5">
+        <v>-0.5</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="AK5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>22.9</v>
+      </c>
+      <c r="C6">
+        <v>3.1</v>
+      </c>
+      <c r="D6">
+        <v>45.24</v>
+      </c>
+      <c r="F6">
+        <v>45.79</v>
+      </c>
+      <c r="L6">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>-0.63</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="AK6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>23.76</v>
+      </c>
+      <c r="C7">
+        <v>2.3</v>
+      </c>
+      <c r="D7">
+        <v>43.89</v>
+      </c>
+      <c r="F7">
+        <v>44.23</v>
+      </c>
+      <c r="L7">
+        <v>19.5</v>
+      </c>
+      <c r="M7">
+        <v>-0.63</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="AK7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>24.39</v>
+      </c>
+      <c r="C8">
+        <v>2.91</v>
+      </c>
+      <c r="D8">
+        <v>42.94</v>
+      </c>
+      <c r="F8">
+        <v>43.44</v>
+      </c>
+      <c r="L8">
+        <v>19</v>
+      </c>
+      <c r="M8">
+        <v>-0.75</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="AK8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>28.07</v>
+      </c>
+      <c r="C9">
+        <v>3.51</v>
+      </c>
+      <c r="D9">
+        <v>42.61</v>
+      </c>
+      <c r="F9">
+        <v>43.05</v>
+      </c>
+      <c r="L9">
+        <v>8.5</v>
+      </c>
+      <c r="M9">
+        <v>0.25</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="AK9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>25.87</v>
+      </c>
+      <c r="C10">
+        <v>3.61</v>
+      </c>
+      <c r="D10">
+        <v>43.55</v>
+      </c>
+      <c r="F10">
+        <v>44.18</v>
+      </c>
+      <c r="L10">
+        <v>13.5</v>
+      </c>
+      <c r="M10">
+        <v>-0.25</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="AK10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>24.86</v>
+      </c>
+      <c r="C11">
+        <v>3.32</v>
+      </c>
+      <c r="D11">
+        <v>42.45</v>
+      </c>
+      <c r="F11">
+        <v>42.78</v>
+      </c>
+      <c r="L11">
+        <v>18</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="AK11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>25.27</v>
+      </c>
+      <c r="C12">
+        <v>2.72</v>
+      </c>
+      <c r="D12">
+        <v>40.61</v>
+      </c>
+      <c r="F12">
+        <v>41.36</v>
+      </c>
+      <c r="L12">
+        <v>19</v>
+      </c>
+      <c r="M12">
+        <v>-0.25</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="AK12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>22.87</v>
+      </c>
+      <c r="C13">
+        <v>2.69</v>
+      </c>
+      <c r="D13">
+        <v>44.29</v>
+      </c>
+      <c r="F13">
+        <v>45.18</v>
+      </c>
+      <c r="L13">
+        <v>22</v>
+      </c>
+      <c r="M13">
+        <v>-0.75</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="AK13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>23.45</v>
+      </c>
+      <c r="C14">
+        <v>3.58</v>
+      </c>
+      <c r="D14">
+        <v>43.83</v>
+      </c>
+      <c r="F14">
+        <v>44.12</v>
+      </c>
+      <c r="L14">
+        <v>21</v>
+      </c>
+      <c r="M14">
+        <v>-0.5</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="AK14" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>23.45</v>
+      </c>
+      <c r="C15">
+        <v>2.66</v>
+      </c>
+      <c r="D15">
+        <v>43.52</v>
+      </c>
+      <c r="F15">
+        <v>43.76</v>
+      </c>
+      <c r="L15">
+        <v>21.5</v>
+      </c>
+      <c r="M15">
+        <v>-0.75</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="AK15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>22.76</v>
+      </c>
+      <c r="C16">
+        <v>2.39</v>
+      </c>
+      <c r="D16">
+        <v>44.29</v>
+      </c>
+      <c r="F16">
+        <v>44.76</v>
+      </c>
+      <c r="L16">
+        <v>21.5</v>
+      </c>
+      <c r="M16">
+        <v>-1</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="AK16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>23.73</v>
+      </c>
+      <c r="C17">
+        <v>3.12</v>
+      </c>
+      <c r="D17">
+        <v>42.61</v>
+      </c>
+      <c r="F17">
+        <v>42.88</v>
+      </c>
+      <c r="L17">
+        <v>20.5</v>
+      </c>
+      <c r="M17">
+        <v>-0.75</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="AK17" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>23.2</v>
+      </c>
+      <c r="C18">
+        <v>3.3</v>
+      </c>
+      <c r="D18">
+        <v>44.7</v>
+      </c>
+      <c r="F18">
+        <v>45.55</v>
+      </c>
+      <c r="L18">
+        <v>19.5</v>
+      </c>
+      <c r="M18">
+        <v>-0.38</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="AK18" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>24.02</v>
+      </c>
+      <c r="C19">
+        <v>3.58</v>
+      </c>
+      <c r="D19">
+        <v>44</v>
+      </c>
+      <c r="F19">
+        <v>44.35</v>
+      </c>
+      <c r="L19">
+        <v>18</v>
+      </c>
+      <c r="M19">
+        <v>-0.75</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="AK19" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>24.87</v>
+      </c>
+      <c r="C20">
+        <v>3.34</v>
+      </c>
+      <c r="D20">
+        <v>43.05</v>
+      </c>
+      <c r="F20">
+        <v>43.38</v>
+      </c>
+      <c r="L20">
+        <v>16</v>
+      </c>
+      <c r="M20">
+        <v>-0.25</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="AK20" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>24.58</v>
+      </c>
+      <c r="C21">
+        <v>2.93</v>
+      </c>
+      <c r="D21">
+        <v>42.99</v>
+      </c>
+      <c r="F21">
+        <v>43.55</v>
+      </c>
+      <c r="L21">
+        <v>17.5</v>
+      </c>
+      <c r="M21">
+        <v>-1</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="AK21" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>24.85</v>
+      </c>
+      <c r="C22">
+        <v>3.32</v>
+      </c>
+      <c r="D22">
+        <v>44.82</v>
+      </c>
+      <c r="F22">
+        <v>45.79</v>
+      </c>
+      <c r="L22">
+        <v>13.5</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22"/>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="AK22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>25.36</v>
+      </c>
+      <c r="C23">
+        <v>3.65</v>
+      </c>
+      <c r="D23">
+        <v>43.44</v>
+      </c>
+      <c r="F23">
+        <v>44.18</v>
+      </c>
+      <c r="L23">
+        <v>14</v>
+      </c>
+      <c r="M23">
+        <v>-0.25</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="AK23" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>25.6</v>
+      </c>
+      <c r="C24">
+        <v>3.17</v>
+      </c>
+      <c r="D24">
+        <v>40.23</v>
+      </c>
+      <c r="F24">
+        <v>40.91</v>
+      </c>
+      <c r="L24">
+        <v>17.5</v>
+      </c>
+      <c r="M24">
+        <v>-0.5</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="AK24" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>24.33</v>
+      </c>
+      <c r="C25">
+        <v>3.08</v>
+      </c>
+      <c r="D25">
+        <v>41.23</v>
+      </c>
+      <c r="F25">
+        <v>41.5</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <v>0.25</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="AK25" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>25.96</v>
+      </c>
+      <c r="C26">
+        <v>3.58</v>
+      </c>
+      <c r="D26">
+        <v>43.55</v>
+      </c>
+      <c r="F26">
+        <v>43.68</v>
+      </c>
+      <c r="L26">
+        <v>12.5</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="AK26" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>3.4</v>
+      </c>
+      <c r="D27">
+        <v>44.53</v>
+      </c>
+      <c r="F27">
+        <v>45.61</v>
+      </c>
+      <c r="L27">
         <v>17</v>
       </c>
-      <c r="O2" s="10">
+      <c r="M27">
+        <v>-0.5</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27">
         <v>1</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="AK2" s="8">
+      <c r="P27" s="4"/>
+      <c r="AK27" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>23.36</v>
+      </c>
+      <c r="C28">
+        <v>2.94</v>
+      </c>
+      <c r="D28">
+        <v>44.12</v>
+      </c>
+      <c r="F28">
+        <v>44.23</v>
+      </c>
+      <c r="L28">
+        <v>20</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28"/>
+      <c r="O28">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="4" t="s">
+      <c r="P28" s="4"/>
+      <c r="AK28" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5">
-        <v>22.8</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2.63</v>
-      </c>
-      <c r="D3" s="7">
-        <v>45.49</v>
-      </c>
-      <c r="F3" s="7">
-        <v>46.49</v>
-      </c>
-      <c r="L3" s="7">
-        <v>20.5</v>
-      </c>
-      <c r="M3" s="1">
-        <v>-0.25</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="B29">
+        <v>22.99</v>
+      </c>
+      <c r="C29">
+        <v>3.25</v>
+      </c>
+      <c r="D29">
+        <v>45.92</v>
+      </c>
+      <c r="F29">
+        <v>46.68</v>
+      </c>
+      <c r="L29">
+        <v>19</v>
+      </c>
+      <c r="M29">
+        <v>-0.5</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" s="4"/>
+      <c r="AK29" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>23.56</v>
+      </c>
+      <c r="C30">
+        <v>2.33</v>
+      </c>
+      <c r="D30">
+        <v>41.31</v>
+      </c>
+      <c r="F30">
+        <v>42.19</v>
+      </c>
+      <c r="L30">
+        <v>22</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30" s="4"/>
+      <c r="AK30" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="16:37">
+      <c r="P31" s="4"/>
+      <c r="AK31" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="16:37">
+      <c r="P32" s="4"/>
+      <c r="AK32" s="4">
         <v>18</v>
       </c>
-      <c r="O3" s="10">
-        <v>1</v>
-      </c>
-      <c r="P3" s="8"/>
-      <c r="AK3" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5">
-        <v>23.79</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2.87</v>
-      </c>
-      <c r="D4" s="7">
-        <v>42.88</v>
-      </c>
-      <c r="F4" s="7">
-        <v>43.72</v>
-      </c>
-      <c r="L4" s="7">
-        <v>20.5</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="10">
-        <v>2</v>
-      </c>
-      <c r="P4" s="8"/>
-      <c r="AK4" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5">
-        <v>23.44</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2.61</v>
-      </c>
-      <c r="D5" s="7">
-        <v>44</v>
-      </c>
-      <c r="F5" s="7">
-        <v>44.29</v>
-      </c>
-      <c r="L5" s="7">
-        <v>20.5</v>
-      </c>
-      <c r="M5" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="10">
-        <v>2</v>
-      </c>
-      <c r="P5" s="8"/>
-      <c r="AK5" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5">
-        <v>22.9</v>
-      </c>
-      <c r="C6" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>45.24</v>
-      </c>
-      <c r="F6" s="7">
-        <v>45.79</v>
-      </c>
-      <c r="L6" s="7">
+    </row>
+    <row r="33" spans="16:37">
+      <c r="P33" s="4"/>
+      <c r="AK33" s="4">
         <v>21</v>
       </c>
-      <c r="M6" s="1">
-        <v>-0.63</v>
-      </c>
-      <c r="N6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="10">
-        <v>2</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="AK6" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5">
-        <v>23.76</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2.3</v>
-      </c>
-      <c r="D7" s="7">
-        <v>43.89</v>
-      </c>
-      <c r="F7" s="7">
-        <v>44.23</v>
-      </c>
-      <c r="L7" s="7">
-        <v>19.5</v>
-      </c>
-      <c r="M7" s="1">
-        <v>-0.63</v>
-      </c>
-      <c r="O7" s="10">
-        <v>2</v>
-      </c>
-      <c r="P7" s="8"/>
-      <c r="AK7" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5">
-        <v>24.39</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2.91</v>
-      </c>
-      <c r="D8" s="7">
-        <v>42.94</v>
-      </c>
-      <c r="F8" s="7">
-        <v>43.44</v>
-      </c>
-      <c r="L8" s="7">
-        <v>19</v>
-      </c>
-      <c r="M8" s="1">
-        <v>-0.75</v>
-      </c>
-      <c r="O8" s="10">
-        <v>1</v>
-      </c>
-      <c r="P8" s="8"/>
-      <c r="AK8" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5">
-        <v>28.07</v>
-      </c>
-      <c r="C9" s="5">
-        <v>3.51</v>
-      </c>
-      <c r="D9" s="7">
-        <v>42.61</v>
-      </c>
-      <c r="F9" s="7">
-        <v>43.05</v>
-      </c>
-      <c r="L9" s="7">
-        <v>8.5</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O9" s="10">
-        <v>1</v>
-      </c>
-      <c r="P9" s="8"/>
-      <c r="AK9" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5">
-        <v>25.87</v>
-      </c>
-      <c r="C10" s="5">
-        <v>3.61</v>
-      </c>
-      <c r="D10" s="7">
-        <v>43.55</v>
-      </c>
-      <c r="F10" s="7">
-        <v>44.18</v>
-      </c>
-      <c r="L10" s="7">
-        <v>13.5</v>
-      </c>
-      <c r="M10" s="1">
-        <v>-0.25</v>
-      </c>
-      <c r="O10" s="10">
-        <v>2</v>
-      </c>
-      <c r="P10" s="8"/>
-      <c r="AK10" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5">
-        <v>24.86</v>
-      </c>
-      <c r="C11" s="5">
-        <v>3.32</v>
-      </c>
-      <c r="D11" s="7">
-        <v>42.45</v>
-      </c>
-      <c r="F11" s="7">
-        <v>42.78</v>
-      </c>
-      <c r="L11" s="7">
-        <v>18</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10">
-        <v>2</v>
-      </c>
-      <c r="P11" s="8"/>
-      <c r="AK11" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5">
-        <v>25.27</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2.72</v>
-      </c>
-      <c r="D12" s="7">
-        <v>40.61</v>
-      </c>
-      <c r="F12" s="7">
-        <v>41.36</v>
-      </c>
-      <c r="L12" s="7">
-        <v>19</v>
-      </c>
-      <c r="M12" s="1">
-        <v>-0.25</v>
-      </c>
-      <c r="O12" s="10">
-        <v>1</v>
-      </c>
-      <c r="P12" s="8"/>
-      <c r="AK12" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5">
-        <v>22.87</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2.69</v>
-      </c>
-      <c r="D13" s="7">
-        <v>44.29</v>
-      </c>
-      <c r="F13" s="7">
-        <v>45.18</v>
-      </c>
-      <c r="L13" s="7">
-        <v>22</v>
-      </c>
-      <c r="M13" s="1">
-        <v>-0.75</v>
-      </c>
-      <c r="O13" s="10">
-        <v>1</v>
-      </c>
-      <c r="P13" s="8"/>
-      <c r="AK13" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5">
-        <v>23.45</v>
-      </c>
-      <c r="C14" s="5">
-        <v>3.58</v>
-      </c>
-      <c r="D14" s="7">
-        <v>43.83</v>
-      </c>
-      <c r="F14" s="7">
-        <v>44.12</v>
-      </c>
-      <c r="L14" s="7">
-        <v>21</v>
-      </c>
-      <c r="M14" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="O14" s="10">
-        <v>2</v>
-      </c>
-      <c r="P14" s="8"/>
-      <c r="AK14" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5">
-        <v>23.45</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2.66</v>
-      </c>
-      <c r="D15" s="7">
-        <v>43.52</v>
-      </c>
-      <c r="F15" s="7">
-        <v>43.76</v>
-      </c>
-      <c r="L15" s="7">
-        <v>21.5</v>
-      </c>
-      <c r="M15" s="1">
-        <v>-0.75</v>
-      </c>
-      <c r="O15" s="10">
-        <v>2</v>
-      </c>
-      <c r="P15" s="8"/>
-      <c r="AK15" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" hidden="1" spans="1:37">
-      <c r="A16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="5">
-        <v>22.76</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2.39</v>
-      </c>
-      <c r="D16" s="7">
-        <v>44.29</v>
-      </c>
-      <c r="F16" s="7">
-        <v>44.76</v>
-      </c>
-      <c r="L16" s="7">
-        <v>21.5</v>
-      </c>
-      <c r="M16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="7">
-        <v>2</v>
-      </c>
-      <c r="P16" s="8">
-        <v>3</v>
-      </c>
-      <c r="AK16" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" hidden="1" spans="1:37">
-      <c r="A17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="5">
-        <v>23.73</v>
-      </c>
-      <c r="C17" s="5">
-        <v>3.12</v>
-      </c>
-      <c r="D17" s="7">
-        <v>42.61</v>
-      </c>
-      <c r="F17" s="7">
-        <v>42.88</v>
-      </c>
-      <c r="L17" s="7">
-        <v>20.5</v>
-      </c>
-      <c r="M17" s="1">
-        <v>-0.75</v>
-      </c>
-      <c r="N17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="7">
-        <v>2</v>
-      </c>
-      <c r="P17" s="8">
-        <v>3</v>
-      </c>
-      <c r="AK17" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" hidden="1" spans="1:37">
-      <c r="A18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="5">
-        <v>23.2</v>
-      </c>
-      <c r="C18" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="D18" s="7">
-        <v>44.7</v>
-      </c>
-      <c r="F18" s="7">
-        <v>45.55</v>
-      </c>
-      <c r="L18" s="7">
-        <v>19.5</v>
-      </c>
-      <c r="M18" s="1">
-        <v>-0.38</v>
-      </c>
-      <c r="N18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" s="7">
-        <v>2</v>
-      </c>
-      <c r="P18" s="8">
-        <v>3</v>
-      </c>
-      <c r="AK18" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" hidden="1" spans="1:37">
-      <c r="A19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="5">
-        <v>24.02</v>
-      </c>
-      <c r="C19" s="5">
-        <v>3.58</v>
-      </c>
-      <c r="D19" s="7">
-        <v>44</v>
-      </c>
-      <c r="F19" s="7">
-        <v>44.35</v>
-      </c>
-      <c r="L19" s="7">
-        <v>18</v>
-      </c>
-      <c r="M19" s="1">
-        <v>-0.75</v>
-      </c>
-      <c r="N19" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="7">
-        <v>2</v>
-      </c>
-      <c r="P19" s="8">
-        <v>3</v>
-      </c>
-      <c r="AK19" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" hidden="1" spans="1:37">
-      <c r="A20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="5">
-        <v>24.87</v>
-      </c>
-      <c r="C20" s="5">
-        <v>3.34</v>
-      </c>
-      <c r="D20" s="7">
-        <v>43.05</v>
-      </c>
-      <c r="F20" s="7">
-        <v>43.38</v>
-      </c>
-      <c r="L20" s="7">
-        <v>16</v>
-      </c>
-      <c r="M20" s="1">
-        <v>-0.25</v>
-      </c>
-      <c r="N20" t="s">
+    </row>
+    <row r="34" spans="16:37">
+      <c r="P34" s="4"/>
+      <c r="AK34" s="4">
         <v>31</v>
       </c>
-      <c r="O20" s="7">
-        <v>1</v>
-      </c>
-      <c r="P20" s="8">
-        <v>3</v>
-      </c>
-      <c r="AK20" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" hidden="1" spans="1:37">
-      <c r="A21" s="8" t="s">
+    </row>
+    <row r="35" spans="16:37">
+      <c r="P35" s="4"/>
+      <c r="AK35" s="4">
         <v>32</v>
       </c>
-      <c r="B21" s="5">
-        <v>24.58</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2.93</v>
-      </c>
-      <c r="D21" s="7">
-        <v>42.99</v>
-      </c>
-      <c r="F21" s="7">
-        <v>43.55</v>
-      </c>
-      <c r="L21" s="7">
-        <v>17.5</v>
-      </c>
-      <c r="M21" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N21" t="s">
+    </row>
+    <row r="36" spans="16:37">
+      <c r="P36" s="4"/>
+      <c r="AK36" s="4">
         <v>33</v>
       </c>
-      <c r="O21" s="7">
-        <v>2</v>
-      </c>
-      <c r="P21" s="11">
-        <v>3</v>
-      </c>
-      <c r="AK21" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" hidden="1" spans="1:37">
-      <c r="A22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="5">
-        <v>24.85</v>
-      </c>
-      <c r="C22" s="5">
-        <v>3.32</v>
-      </c>
-      <c r="D22" s="7">
-        <v>44.82</v>
-      </c>
-      <c r="F22" s="7">
-        <v>45.79</v>
-      </c>
-      <c r="L22" s="7">
-        <v>13.5</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
+    </row>
+    <row r="37" spans="16:37">
+      <c r="P37" s="4"/>
+      <c r="AK37" s="4">
         <v>35</v>
       </c>
-      <c r="O22" s="10">
-        <v>2</v>
-      </c>
-      <c r="P22" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK22" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" hidden="1" spans="1:37">
-      <c r="A23" s="4" t="s">
+    </row>
+    <row r="38" spans="16:37">
+      <c r="P38" s="4"/>
+      <c r="AK38" s="4">
         <v>36</v>
       </c>
-      <c r="B23" s="5">
-        <v>25.36</v>
-      </c>
-      <c r="C23" s="5">
-        <v>3.65</v>
-      </c>
-      <c r="D23" s="7">
-        <v>43.44</v>
-      </c>
-      <c r="F23" s="7">
-        <v>44.18</v>
-      </c>
-      <c r="L23" s="7">
-        <v>14</v>
-      </c>
-      <c r="M23" s="1">
-        <v>-0.25</v>
-      </c>
-      <c r="N23" t="s">
-        <v>37</v>
-      </c>
-      <c r="O23" s="10">
-        <v>1</v>
-      </c>
-      <c r="P23" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK23" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" hidden="1" spans="1:37">
-      <c r="A24" s="4" t="s">
+    </row>
+    <row r="39" spans="16:37">
+      <c r="P39" s="4"/>
+      <c r="AK39" s="4">
         <v>38</v>
       </c>
-      <c r="B24" s="5">
-        <v>25.6</v>
-      </c>
-      <c r="C24" s="5">
-        <v>3.17</v>
-      </c>
-      <c r="D24" s="7">
-        <v>40.23</v>
-      </c>
-      <c r="F24" s="7">
-        <v>40.91</v>
-      </c>
-      <c r="L24" s="7">
-        <v>17.5</v>
-      </c>
-      <c r="M24" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="10">
-        <v>1</v>
-      </c>
-      <c r="P24" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK24" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" hidden="1" spans="1:37">
-      <c r="A25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="5">
-        <v>24.33</v>
-      </c>
-      <c r="C25" s="5">
-        <v>3.08</v>
-      </c>
-      <c r="D25" s="7">
-        <v>41.23</v>
-      </c>
-      <c r="F25" s="7">
-        <v>41.5</v>
-      </c>
-      <c r="L25" s="7">
-        <v>20</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="N25" t="s">
-        <v>41</v>
-      </c>
-      <c r="O25" s="10">
-        <v>1</v>
-      </c>
-      <c r="P25" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK25" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" hidden="1" spans="1:37">
-      <c r="A26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="5">
-        <v>25.96</v>
-      </c>
-      <c r="C26" s="5">
-        <v>3.58</v>
-      </c>
-      <c r="D26" s="7">
-        <v>43.55</v>
-      </c>
-      <c r="F26" s="7">
-        <v>43.68</v>
-      </c>
-      <c r="L26" s="7">
-        <v>12.5</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
-        <v>43</v>
-      </c>
-      <c r="O26" s="10">
-        <v>1</v>
-      </c>
-      <c r="P26" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK26" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" hidden="1" spans="1:37">
-      <c r="A27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="5">
-        <v>24</v>
-      </c>
-      <c r="C27" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="D27" s="7">
-        <v>44.53</v>
-      </c>
-      <c r="F27" s="7">
-        <v>45.61</v>
-      </c>
-      <c r="L27" s="7">
-        <v>17</v>
-      </c>
-      <c r="M27" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="N27" t="s">
+    </row>
+    <row r="40" spans="16:37">
+      <c r="P40" s="4"/>
+      <c r="AK40" s="4">
         <v>45</v>
       </c>
-      <c r="O27" s="10">
-        <v>1</v>
-      </c>
-      <c r="P27" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK27" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" hidden="1" spans="1:37">
-      <c r="A28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="5">
-        <v>23.36</v>
-      </c>
-      <c r="C28" s="5">
-        <v>2.94</v>
-      </c>
-      <c r="D28" s="7">
-        <v>44.12</v>
-      </c>
-      <c r="F28" s="7">
-        <v>44.23</v>
-      </c>
-      <c r="L28" s="7">
-        <v>20</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="N28" t="s">
+    </row>
+    <row r="41" spans="16:37">
+      <c r="P41" s="4"/>
+      <c r="AK41" s="4">
         <v>47</v>
       </c>
-      <c r="O28" s="10">
-        <v>1</v>
-      </c>
-      <c r="P28" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK28" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" spans="1:37">
-      <c r="A29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="5">
-        <v>22.99</v>
-      </c>
-      <c r="C29" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="D29" s="7">
-        <v>45.92</v>
-      </c>
-      <c r="F29" s="7">
-        <v>46.68</v>
-      </c>
-      <c r="L29" s="7">
-        <v>19</v>
-      </c>
-      <c r="M29" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>27</v>
-      </c>
-      <c r="O29" s="10">
-        <v>1</v>
-      </c>
-      <c r="P29" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK29" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" hidden="1" spans="1:37">
-      <c r="A30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="5">
-        <v>23.56</v>
-      </c>
-      <c r="C30" s="5">
-        <v>2.33</v>
-      </c>
-      <c r="D30" s="7">
-        <v>41.31</v>
-      </c>
-      <c r="F30" s="7">
-        <v>42.19</v>
-      </c>
-      <c r="L30" s="7">
-        <v>22</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
-      <c r="N30" t="s">
-        <v>50</v>
-      </c>
-      <c r="O30" s="10">
-        <v>2</v>
-      </c>
-      <c r="P30" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK30" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" hidden="1" spans="1:37">
-      <c r="A31" s="4" t="s">
+    </row>
+    <row r="42" spans="16:37">
+      <c r="P42" s="4"/>
+      <c r="AK42" s="4">
         <v>51</v>
       </c>
-      <c r="B31" s="5">
-        <v>24.69</v>
-      </c>
-      <c r="C31" s="5">
-        <v>2.73</v>
-      </c>
-      <c r="D31" s="7">
-        <v>42.67</v>
-      </c>
-      <c r="F31" s="7">
-        <v>44</v>
-      </c>
-      <c r="L31" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="M31" s="1">
-        <v>-0.75</v>
-      </c>
-      <c r="N31" t="s">
-        <v>52</v>
-      </c>
-      <c r="O31" s="10">
-        <v>1</v>
-      </c>
-      <c r="P31" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK31" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" hidden="1" spans="1:37">
-      <c r="A32" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="5">
-        <v>26.52</v>
-      </c>
-      <c r="C32" s="5">
-        <v>3.64</v>
-      </c>
-      <c r="D32" s="7">
-        <v>42.24</v>
-      </c>
-      <c r="F32" s="7">
-        <v>42.72</v>
-      </c>
-      <c r="L32" s="7">
-        <v>12.5</v>
-      </c>
-      <c r="M32" s="1">
-        <v>-0.75</v>
-      </c>
-      <c r="N32" t="s">
-        <v>54</v>
-      </c>
-      <c r="O32" s="10">
-        <v>1</v>
-      </c>
-      <c r="P32" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK32" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" hidden="1" spans="1:37">
-      <c r="A33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="5">
-        <v>23.74</v>
-      </c>
-      <c r="C33" s="5">
-        <v>2.41</v>
-      </c>
-      <c r="D33" s="7">
-        <v>42.08</v>
-      </c>
-      <c r="F33" s="7">
-        <v>42.61</v>
-      </c>
-      <c r="L33" s="7">
-        <v>20.5</v>
-      </c>
-      <c r="M33" s="1">
-        <v>-0.75</v>
-      </c>
-      <c r="N33" t="s">
-        <v>56</v>
-      </c>
-      <c r="O33" s="10">
-        <v>2</v>
-      </c>
-      <c r="P33" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK33" s="11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" hidden="1" spans="1:37">
-      <c r="A34" s="4" t="s">
+    </row>
+    <row r="43" spans="16:37">
+      <c r="P43" s="4"/>
+      <c r="AK43" s="4">
         <v>57</v>
       </c>
-      <c r="B34" s="5">
-        <v>23.13</v>
-      </c>
-      <c r="C34" s="5">
-        <v>3.36</v>
-      </c>
-      <c r="D34" s="7">
-        <v>45.79</v>
-      </c>
-      <c r="F34" s="7">
-        <v>47.07</v>
-      </c>
-      <c r="L34" s="7">
-        <v>18</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
-        <v>58</v>
-      </c>
-      <c r="O34" s="10">
-        <v>2</v>
-      </c>
-      <c r="P34" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK34" s="11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" hidden="1" spans="1:37">
-      <c r="A35" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="5">
-        <v>24.14</v>
-      </c>
-      <c r="C35" s="5">
-        <v>3.23</v>
-      </c>
-      <c r="D35" s="7">
-        <v>44.76</v>
-      </c>
-      <c r="F35" s="7">
-        <v>46.04</v>
-      </c>
-      <c r="L35" s="7">
-        <v>16</v>
-      </c>
-      <c r="M35" s="1">
-        <v>-0.63</v>
-      </c>
-      <c r="N35" t="s">
-        <v>60</v>
-      </c>
-      <c r="O35" s="10">
-        <v>1</v>
-      </c>
-      <c r="P35" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK35" s="11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" hidden="1" spans="1:37">
-      <c r="A36" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="5">
-        <v>23.23</v>
-      </c>
-      <c r="C36" s="5">
-        <v>2.68</v>
-      </c>
-      <c r="D36" s="7">
-        <v>43.49</v>
-      </c>
-      <c r="F36" s="7">
-        <v>44.06</v>
-      </c>
-      <c r="L36" s="7">
-        <v>21</v>
-      </c>
-      <c r="M36" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>62</v>
-      </c>
-      <c r="O36" s="10">
-        <v>1</v>
-      </c>
-      <c r="P36" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK36" s="11">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" hidden="1" spans="1:37">
-      <c r="A37" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="5">
-        <v>23.53</v>
-      </c>
-      <c r="C37" s="5">
-        <v>2.59</v>
-      </c>
-      <c r="D37" s="7">
-        <v>43.95</v>
-      </c>
-      <c r="F37" s="7">
-        <v>44.58</v>
-      </c>
-      <c r="L37" s="7">
-        <v>19</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
-        <v>64</v>
-      </c>
-      <c r="O37" s="10">
-        <v>1</v>
-      </c>
-      <c r="P37" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK37" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" spans="1:37">
-      <c r="A38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="5">
-        <v>25.55</v>
-      </c>
-      <c r="C38" s="5">
-        <v>3.66</v>
-      </c>
-      <c r="D38" s="7">
-        <v>43.95</v>
-      </c>
-      <c r="F38" s="7">
-        <v>44.23</v>
-      </c>
-      <c r="L38" s="7">
-        <v>13</v>
-      </c>
-      <c r="M38" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N38" t="s">
-        <v>66</v>
-      </c>
-      <c r="O38" s="10">
-        <v>2</v>
-      </c>
-      <c r="P38" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK38" s="11">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" hidden="1" spans="1:37">
-      <c r="A39" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="5">
-        <v>23.34</v>
-      </c>
-      <c r="C39" s="5">
-        <v>2.74</v>
-      </c>
-      <c r="D39" s="7">
-        <v>44.47</v>
-      </c>
-      <c r="F39" s="7">
-        <v>45.86</v>
-      </c>
-      <c r="L39" s="7">
-        <v>19</v>
-      </c>
-      <c r="M39" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="N39" t="s">
-        <v>68</v>
-      </c>
-      <c r="P39" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK39" s="11">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" hidden="1" spans="1:37">
-      <c r="A40" s="4" t="s">
+    </row>
+    <row r="44" spans="16:37">
+      <c r="P44" s="4"/>
+      <c r="AK44" s="4">
         <v>69</v>
       </c>
-      <c r="B40" s="5">
-        <v>23.51</v>
-      </c>
-      <c r="C40" s="5">
-        <v>2.9</v>
-      </c>
-      <c r="D40" s="7">
-        <v>44.12</v>
-      </c>
-      <c r="F40" s="7">
-        <v>44.47</v>
-      </c>
-      <c r="L40" s="12">
-        <v>19.5</v>
-      </c>
-      <c r="M40" s="1">
-        <v>-0.75</v>
-      </c>
-      <c r="N40" t="s">
-        <v>70</v>
-      </c>
-      <c r="P40" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK40" s="11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" hidden="1" spans="1:37">
-      <c r="A41" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="5">
-        <v>23.23</v>
-      </c>
-      <c r="C41" s="5">
-        <v>2.99</v>
-      </c>
-      <c r="D41" s="7">
-        <v>45.18</v>
-      </c>
-      <c r="F41" s="7">
-        <v>46.62</v>
-      </c>
-      <c r="L41" s="7">
-        <v>18.5</v>
-      </c>
-      <c r="M41" s="1">
-        <v>-0.75</v>
-      </c>
-      <c r="N41" t="s">
-        <v>25</v>
-      </c>
-      <c r="P41" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK41" s="11">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" hidden="1" spans="1:37">
-      <c r="A42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="5">
-        <v>25.09</v>
-      </c>
-      <c r="C42" s="5">
-        <v>2.76</v>
-      </c>
-      <c r="D42" s="9">
-        <v>45.36</v>
-      </c>
-      <c r="F42" s="9">
-        <v>45.92</v>
-      </c>
-      <c r="L42" s="7">
-        <v>12</v>
-      </c>
-      <c r="M42" s="1">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
-        <v>73</v>
-      </c>
-      <c r="P42" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK42" s="11">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" hidden="1" spans="1:37">
-      <c r="A43" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="5">
-        <v>21.38</v>
-      </c>
-      <c r="C43" s="5">
-        <v>2.88</v>
-      </c>
-      <c r="D43" s="7">
-        <v>47.27</v>
-      </c>
-      <c r="F43" s="7">
-        <v>47.94</v>
-      </c>
-      <c r="L43" s="7">
-        <v>23.5</v>
-      </c>
-      <c r="M43" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N43" t="s">
-        <v>75</v>
-      </c>
-      <c r="P43" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK43" s="11">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" hidden="1" spans="1:37">
-      <c r="A44" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="5">
-        <v>23.53</v>
-      </c>
-      <c r="C44" s="5">
-        <v>2.56</v>
-      </c>
-      <c r="D44" s="7">
-        <v>40.96</v>
-      </c>
-      <c r="F44" s="7">
-        <v>42.03</v>
-      </c>
-      <c r="L44" s="7">
-        <v>22.5</v>
-      </c>
-      <c r="M44" s="1">
-        <v>-0.25</v>
-      </c>
-      <c r="N44" t="s">
-        <v>77</v>
-      </c>
-      <c r="P44" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK44" s="11">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" hidden="1"/>
-    <row r="46" hidden="1"/>
-    <row r="47" hidden="1"/>
-    <row r="48" hidden="1"/>
-    <row r="49" hidden="1"/>
-    <row r="50" hidden="1"/>
-    <row r="51" hidden="1"/>
-    <row r="52" hidden="1"/>
-    <row r="53" hidden="1"/>
-    <row r="54" hidden="1"/>
-    <row r="55" hidden="1"/>
-    <row r="56" hidden="1"/>
-    <row r="57" hidden="1"/>
-    <row r="58" hidden="1"/>
-    <row r="59" hidden="1"/>
-    <row r="60" hidden="1"/>
-    <row r="61" hidden="1"/>
-    <row r="62" hidden="1"/>
-    <row r="63" hidden="1"/>
-    <row r="64" hidden="1"/>
-    <row r="65" hidden="1"/>
-    <row r="66" hidden="1"/>
-    <row r="67" hidden="1"/>
-    <row r="68" hidden="1"/>
-    <row r="69" hidden="1"/>
-    <row r="70" hidden="1"/>
-    <row r="71" hidden="1"/>
-    <row r="72" hidden="1"/>
-    <row r="73" hidden="1"/>
-    <row r="74" hidden="1"/>
-    <row r="75" hidden="1"/>
-    <row r="76" hidden="1"/>
-    <row r="77" hidden="1"/>
-    <row r="78" hidden="1"/>
-    <row r="79" hidden="1"/>
-    <row r="80" hidden="1"/>
-    <row r="81" hidden="1"/>
-    <row r="82" hidden="1"/>
-    <row r="83" hidden="1"/>
-    <row r="84" hidden="1"/>
-    <row r="85" hidden="1"/>
-    <row r="86" hidden="1"/>
-    <row r="87" hidden="1"/>
-    <row r="88" hidden="1"/>
-    <row r="89" hidden="1"/>
-    <row r="90" hidden="1"/>
-    <row r="91" hidden="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO91">
-    <filterColumn colId="15">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-        <customFilter operator="equal" val="2"/>
-      </customFilters>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
-  <conditionalFormatting sqref="B2:B44">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>15</formula>
-      <formula>22</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>24</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -4105,10 +3290,10 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -4352,7 +3537,7 @@
         <v>117.091051724138</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -4364,7 +3549,7 @@
         <v>118.287</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -4376,7 +3561,7 @@
         <v>114.927</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:2">
@@ -4461,7 +3646,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B50">
         <f>AVERAGE(B2:B49)</f>
@@ -4470,7 +3655,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B51">
         <f>MAX(B2:B49)</f>
@@ -4479,7 +3664,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B52">
         <f>MIN(B2:B49)</f>
